--- a/1_High&Lowゲーム/【High&Low】設計.xlsx
+++ b/1_High&Lowゲーム/【High&Low】設計.xlsx
@@ -8,25 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB69C0E-7BB8-4B23-845A-5D58FA1E80A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F088990-515C-4450-97D0-645D5379F47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="1665" windowWidth="21600" windowHeight="13590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_High&amp;Lowゲーム" sheetId="3" r:id="rId1"/>
-    <sheet name="設計" sheetId="5" r:id="rId2"/>
+    <sheet name="基本設計" sheetId="5" r:id="rId2"/>
+    <sheet name="詳細設計" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>1_High&amp;Lowゲーム</t>
     <phoneticPr fontId="1"/>
@@ -73,54 +85,241 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設計</t>
+    <t>＜ゲームの進行イメージ＞</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>デッキからカード1枚（以降「カードA」）を選択し、数字を表示</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>デッキからカード1枚（以降「カードB」）を選択</t>
+  </si>
+  <si>
+    <t>カードAとカードBを比較して「以上（HIGH）」か「未満（LOW）」を予想</t>
+  </si>
+  <si>
+    <t>正解した場合</t>
+  </si>
+  <si>
+    <t>STARTに戻る</t>
+  </si>
+  <si>
+    <t>失敗した場合</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>ゲーム終了</t>
+  </si>
+  <si>
+    <t>＜処理イメージ＞</t>
+  </si>
+  <si>
+    <t>基本設計</t>
     <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＜ゲームの進行イメージ＞</t>
-  </si>
-  <si>
-    <t>START</t>
-  </si>
-  <si>
-    <t>デッキからカード1枚（以降「カードA」）を選択し、数字を表示</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>デッキからカード1枚（以降「カードB」）を選択</t>
-  </si>
-  <si>
-    <t>カードAとカードBを比較して「以上（HIGH）」か「未満（LOW）」を予想</t>
-  </si>
-  <si>
-    <t>正解した場合</t>
-  </si>
-  <si>
-    <t>STARTに戻る</t>
-  </si>
-  <si>
-    <t>失敗した場合</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>ゲーム終了</t>
-  </si>
-  <si>
-    <t>＜処理イメージ＞</t>
+    <t>詳細設計</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜クラス図＞</t>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜クラス構成＞</t>
+  </si>
+  <si>
+    <t>■メインクラス</t>
+  </si>
+  <si>
+    <t>▼概要</t>
+  </si>
+  <si>
+    <t>ゲームのを進行を制御するクラス</t>
+  </si>
+  <si>
+    <t>▼データ</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>▼メソッド</t>
+  </si>
+  <si>
+    <t>■デッキクラス</t>
+  </si>
+  <si>
+    <t>■カードクラス</t>
+  </si>
+  <si>
+    <t>■プレイヤークラス</t>
+  </si>
+  <si>
+    <t>デッキに関する処理を制御するクラス</t>
+  </si>
+  <si>
+    <t>カードに関する処理を制御するクラス</t>
+  </si>
+  <si>
+    <t>プレイヤーに関する処理を制御するクラス</t>
+  </si>
+  <si>
+    <t>・デッキの初期設定</t>
+  </si>
+  <si>
+    <t>・マークの種別</t>
+  </si>
+  <si>
+    <t>・デッキを引く処理</t>
+  </si>
+  <si>
+    <t>・数字の管理</t>
+  </si>
+  <si>
+    <t>・mark（マーク）</t>
+  </si>
+  <si>
+    <t>・card_index（次に取り出すカード番号）</t>
+  </si>
+  <si>
+    <t>・no（数字）</t>
+  </si>
+  <si>
+    <t>・なし</t>
+  </si>
+  <si>
+    <t>・drawCard（カードを1枚ドローする）</t>
+  </si>
+  <si>
+    <t>・getNo（プレイヤーが持っているカードの数字を取得する）</t>
+  </si>
+  <si>
+    <t>・getMark（プレイヤーが持っているカードのマークを取得する）</t>
+  </si>
+  <si>
+    <t>- startGame()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>startGame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・card_list（カード54枚のリスト）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deck</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Card</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・getCard（カードを1引く）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+ getCard()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.itsenka.com/contents/development/uml/class.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記載ルール等は以下を参考</t>
+    <rPh sb="0" eb="2">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+drawCard()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+getNo()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+getMark()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- mark:int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- no:int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- total_card:int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- card_list:List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- card_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・card_info（プレイやが持っているカード情報）</t>
+    <rPh sb="16" eb="17">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -142,6 +341,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,7 +358,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -177,13 +384,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -202,8 +482,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1571,6 +1882,181 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBC8C6C-40EB-E889-1A03-83371A8643C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1838325" y="1819275"/>
+          <a:ext cx="0" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19053</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="コネクタ: カギ線 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D27564-477B-7022-D18E-BEA8B2D1A5D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1866903" y="2105026"/>
+          <a:ext cx="4162423" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 343"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="コネクタ: カギ線 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{818BAA3F-E3E1-1778-B4BC-80AAFB54F522}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1885950" y="2095500"/>
+          <a:ext cx="2057400" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2315"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1932,7 +2418,9 @@
   </sheetPr>
   <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1941,86 +2429,86 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
       <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
       <c r="H9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4"/>
       <c r="H11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2029,4 +2517,257 @@
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0FC5A3-9D2F-4681-A61A-0E77EAFB05C8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:L45"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="G14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="J14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="G15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="J15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="G16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="J16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="J17" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="J18" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" t="s">
+        <v>49</v>
+      </c>
+      <c r="L43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{A26BF4E9-B0F7-4585-AFF5-F9E994CEFAD5}"/>
+  </hyperlinks>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/1_High&Lowゲーム/【High&Low】設計.xlsx
+++ b/1_High&Lowゲーム/【High&Low】設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F088990-515C-4450-97D0-645D5379F47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA70CF9-14D5-4AFE-9C8E-FFCF4ED71534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="1665" windowWidth="21600" windowHeight="13590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30180" yWindow="1380" windowWidth="21600" windowHeight="13590" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_High&amp;Lowゲーム" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>1_High&amp;Lowゲーム</t>
     <phoneticPr fontId="1"/>
@@ -155,9 +155,6 @@
     <t>＜クラス構成＞</t>
   </si>
   <si>
-    <t>■メインクラス</t>
-  </si>
-  <si>
     <t>▼概要</t>
   </si>
   <si>
@@ -171,15 +168,6 @@
   </si>
   <si>
     <t>▼メソッド</t>
-  </si>
-  <si>
-    <t>■デッキクラス</t>
-  </si>
-  <si>
-    <t>■カードクラス</t>
-  </si>
-  <si>
-    <t>■プレイヤークラス</t>
   </si>
   <si>
     <t>デッキに関する処理を制御するクラス</t>
@@ -313,6 +301,104 @@
       <t>モ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Mainクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Deckクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Cardクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Playerクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・total_card（現在のカード情報）</t>
+    <rPh sb="12" eb="14">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜実装メモ＞</t>
+  </si>
+  <si>
+    <t>・「一度引いたカードはゲームが終了するまで出てこない」という仕様上、</t>
+  </si>
+  <si>
+    <t>　どのカードを引いて、どのカードが残っているか管理する必要がある。</t>
+  </si>
+  <si>
+    <t>　そのため、以下の方法で数字とマークを決定してしようと思います。</t>
+  </si>
+  <si>
+    <t>＜概要＞</t>
+  </si>
+  <si>
+    <t>デッキクラス#card_listに0～53の数字を入れて、それぞれに以下のイメージでゲームを進める。</t>
+  </si>
+  <si>
+    <t>・0 ～12：スペードA～K</t>
+  </si>
+  <si>
+    <t>・13～25：ハートA～K</t>
+  </si>
+  <si>
+    <t>・26～38：ダイヤA～K</t>
+  </si>
+  <si>
+    <t>・39～51：クラブA～K</t>
+  </si>
+  <si>
+    <t>・52～53：ジョーカー</t>
+  </si>
+  <si>
+    <t>＜数字とマークの決定方法＞</t>
+  </si>
+  <si>
+    <t>0～53の数字を抜き出した際、その数字を13で割った結果によって決定する。</t>
+  </si>
+  <si>
+    <t>・数字・・・13で割った余りに＋１</t>
+  </si>
+  <si>
+    <t>・マーク・・・13で割った商</t>
+  </si>
+  <si>
+    <t>▼商別のマーク一覧</t>
+  </si>
+  <si>
+    <t>商が0：スペード</t>
+  </si>
+  <si>
+    <t>商が1：ハート</t>
+  </si>
+  <si>
+    <t>商が2：ダイヤ</t>
+  </si>
+  <si>
+    <t>商が3：クラブ</t>
+  </si>
+  <si>
+    <t>商が4：クラブ</t>
+  </si>
+  <si>
+    <t>例）30　を抜き出した場合</t>
+  </si>
+  <si>
+    <t>30/13 = 　商が2　余りが4</t>
+  </si>
+  <si>
+    <t>よって引いたは　ダイヤの5　みたいなイメージ</t>
   </si>
 </sst>
 </file>
@@ -358,7 +444,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -454,6 +540,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -463,7 +578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -511,6 +626,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1921,10 +2045,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -1979,10 +2104,11 @@
             <a:gd name="adj1" fmla="val 343"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2036,10 +2162,11 @@
             <a:gd name="adj1" fmla="val -2315"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2418,8 +2545,8 @@
   </sheetPr>
   <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2524,11 +2651,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:L45"/>
+  <dimension ref="B2:O77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2547,12 +2672,12 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D6" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -2563,202 +2688,410 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D10" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D14" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E14" s="7"/>
       <c r="G14" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H14" s="7"/>
       <c r="J14" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D15" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H15" s="11"/>
       <c r="J15" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K15" s="7"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D16" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E16" s="13"/>
       <c r="G16" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H16" s="13"/>
       <c r="J16" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D17" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E17" s="7"/>
       <c r="J17" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="J18" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K18" s="13"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D26" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D27" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D29" s="16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D30" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D32" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D33" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D34" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E30" t="s">
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D38" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D39" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D43" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D44" s="17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I32" t="s">
-        <v>37</v>
-      </c>
-      <c r="L32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35" t="s">
-        <v>43</v>
-      </c>
-      <c r="L35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>55</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="L39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
         <v>47</v>
       </c>
-      <c r="I40" t="s">
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
-        <v>58</v>
-      </c>
-      <c r="I43" t="s">
-        <v>49</v>
-      </c>
-      <c r="L43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="L44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="L45" t="s">
-        <v>52</v>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
